--- a/base_de_datos.xlsx
+++ b/base_de_datos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>Código</t>
   </si>
@@ -227,6 +227,36 @@
   </si>
   <si>
     <t>porfido_marron.jpeg</t>
+  </si>
+  <si>
+    <t>00022</t>
+  </si>
+  <si>
+    <t>Muro Piedra Natural</t>
+  </si>
+  <si>
+    <t>31x53</t>
+  </si>
+  <si>
+    <t>piedra_natural.jpeg</t>
+  </si>
+  <si>
+    <t>00023</t>
+  </si>
+  <si>
+    <t>Muro Travertino</t>
+  </si>
+  <si>
+    <t>muro_travertino.jpeg</t>
+  </si>
+  <si>
+    <t>00024</t>
+  </si>
+  <si>
+    <t>Revestimiento Nieve Brillante</t>
+  </si>
+  <si>
+    <t>nieve_brillante.jpeg</t>
   </si>
 </sst>
 </file>
@@ -570,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,6 +989,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/base_de_datos.xlsx
+++ b/base_de_datos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="105">
   <si>
     <t>Código</t>
   </si>
@@ -52,9 +52,6 @@
     <t>56x56</t>
   </si>
   <si>
-    <t>Lourdes</t>
-  </si>
-  <si>
     <t>Cerámica Travertino Marfil</t>
   </si>
   <si>
@@ -257,6 +254,81 @@
   </si>
   <si>
     <t>nieve_brillante.jpeg</t>
+  </si>
+  <si>
+    <t>00025</t>
+  </si>
+  <si>
+    <t>subway_blanco.jpeg</t>
+  </si>
+  <si>
+    <t>Revestimiento Subway Blanco</t>
+  </si>
+  <si>
+    <t>Revestimiento Subway Carrara</t>
+  </si>
+  <si>
+    <t>subway_carrara.jpeg</t>
+  </si>
+  <si>
+    <t>00026</t>
+  </si>
+  <si>
+    <t>Revestimiento Subway Negro</t>
+  </si>
+  <si>
+    <t>00027</t>
+  </si>
+  <si>
+    <t>subway_negro.jpeg</t>
+  </si>
+  <si>
+    <t>venecita_blanca.jpeg</t>
+  </si>
+  <si>
+    <t>00028</t>
+  </si>
+  <si>
+    <t>Revestimiento Venecita Blanca</t>
+  </si>
+  <si>
+    <t>00029</t>
+  </si>
+  <si>
+    <t>Revestimiento Venecita Gris</t>
+  </si>
+  <si>
+    <t>venecita_gris.jpeg</t>
+  </si>
+  <si>
+    <t>venecita_terra.jpeg</t>
+  </si>
+  <si>
+    <t>00030</t>
+  </si>
+  <si>
+    <t>Revestimiento Venecita Terra</t>
+  </si>
+  <si>
+    <t>Revestimiento Carrara Brillante</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>rev_carrara_brillante.jpeg</t>
+  </si>
+  <si>
+    <t>00032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revestimiento Cerámica Calipso Gris </t>
+  </si>
+  <si>
+    <t>calipso_gris.jpeg</t>
+  </si>
+  <si>
+    <t>lourdes</t>
   </si>
 </sst>
 </file>
@@ -600,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,10 +715,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -654,16 +726,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,16 +743,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -688,16 +760,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -705,339 +777,475 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="D23" t="s">
-        <v>74</v>
-      </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
         <v>75</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
         <v>76</v>
       </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
         <v>78</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/base_de_datos.xlsx
+++ b/base_de_datos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
   <si>
     <t>Código</t>
   </si>
@@ -329,6 +329,45 @@
   </si>
   <si>
     <t>lourdes</t>
+  </si>
+  <si>
+    <t>Cerámica Madera Lenga Blanca</t>
+  </si>
+  <si>
+    <t>00033</t>
+  </si>
+  <si>
+    <t>lenga_blanca.jpeg</t>
+  </si>
+  <si>
+    <t>00034</t>
+  </si>
+  <si>
+    <t>Cerámica Madera Lenga</t>
+  </si>
+  <si>
+    <t>madera_lenga.jpeg</t>
+  </si>
+  <si>
+    <t>madera_lenga_gris.jpeg</t>
+  </si>
+  <si>
+    <t>00035</t>
+  </si>
+  <si>
+    <t>Cerámica Madera Lenga Gris</t>
+  </si>
+  <si>
+    <t>25x35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Rev. Montecarlo Blanca </t>
+  </si>
+  <si>
+    <t>00036</t>
+  </si>
+  <si>
+    <t>montecarlo_blanca.jpeg</t>
   </si>
 </sst>
 </file>
@@ -344,12 +383,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -364,10 +409,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,546 +752,614 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>104</v>
       </c>
     </row>

--- a/base_de_datos.xlsx
+++ b/base_de_datos.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="base_de_datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="469">
   <si>
     <t>Código</t>
   </si>
@@ -368,6 +368,1059 @@
   </si>
   <si>
     <t>montecarlo_blanca.jpeg</t>
+  </si>
+  <si>
+    <t>00037</t>
+  </si>
+  <si>
+    <t>salteña</t>
+  </si>
+  <si>
+    <t>43x43</t>
+  </si>
+  <si>
+    <t>Cerámica Clásica Curado a Fuego</t>
+  </si>
+  <si>
+    <t>cuadro_a_fuego.jpeg</t>
+  </si>
+  <si>
+    <t>00038</t>
+  </si>
+  <si>
+    <t>Cerámica Clásico Cotto Rojo</t>
+  </si>
+  <si>
+    <t>cotto_rojo.jpeg</t>
+  </si>
+  <si>
+    <t>Ceramica Calacatta Brillante</t>
+  </si>
+  <si>
+    <t>00039</t>
+  </si>
+  <si>
+    <t>calacatta_brillante.jpeg</t>
+  </si>
+  <si>
+    <t>00040</t>
+  </si>
+  <si>
+    <t>00041</t>
+  </si>
+  <si>
+    <t>00042</t>
+  </si>
+  <si>
+    <t>00043</t>
+  </si>
+  <si>
+    <t>00044</t>
+  </si>
+  <si>
+    <t>00045</t>
+  </si>
+  <si>
+    <t>Ceramica San Antonio Arena</t>
+  </si>
+  <si>
+    <t>san_antonio_arena.jpeg</t>
+  </si>
+  <si>
+    <t>Ceramica Cachi Arena Brillante</t>
+  </si>
+  <si>
+    <t>cachi_arena_brillante.jpeg</t>
+  </si>
+  <si>
+    <t>capri_mix.jpeg</t>
+  </si>
+  <si>
+    <t>Cerámica Capri Blú</t>
+  </si>
+  <si>
+    <t>Ceramica Capri Mix</t>
+  </si>
+  <si>
+    <t>capri_blu.jpeg</t>
+  </si>
+  <si>
+    <t>Cerámica Algarrobo Natural</t>
+  </si>
+  <si>
+    <t>algarrobo_natural.jpeg</t>
+  </si>
+  <si>
+    <t>Cerámica San Luis Beige</t>
+  </si>
+  <si>
+    <t>san_luis_beige.jpeg</t>
+  </si>
+  <si>
+    <t>36x36</t>
+  </si>
+  <si>
+    <t>00046</t>
+  </si>
+  <si>
+    <t>Cerámica Cuarzo Tiza</t>
+  </si>
+  <si>
+    <t>cuarzo_tiza.jpeg</t>
+  </si>
+  <si>
+    <t>Cerámica Cuarzo Noche</t>
+  </si>
+  <si>
+    <t>cuarzo_noche.jpeg</t>
+  </si>
+  <si>
+    <t>00047</t>
+  </si>
+  <si>
+    <t>Cerámica Tastil Blanco</t>
+  </si>
+  <si>
+    <t>00048</t>
+  </si>
+  <si>
+    <t>tastil_blanco.jpeg</t>
+  </si>
+  <si>
+    <t>cuadro_a_fuego_peq.jpeg</t>
+  </si>
+  <si>
+    <t>00049</t>
+  </si>
+  <si>
+    <t>00050</t>
+  </si>
+  <si>
+    <t>quina_rojiza.jpeg</t>
+  </si>
+  <si>
+    <t>Cerámica Quina Rojiza</t>
+  </si>
+  <si>
+    <t>sanPietro</t>
+  </si>
+  <si>
+    <t>53x53</t>
+  </si>
+  <si>
+    <t>patagonico_arena.jpeg</t>
+  </si>
+  <si>
+    <t>00051</t>
+  </si>
+  <si>
+    <t>Porcelanato Patagonico Arena</t>
+  </si>
+  <si>
+    <t>Porcelanato Patagonico Mercurio</t>
+  </si>
+  <si>
+    <t>00052</t>
+  </si>
+  <si>
+    <t>patagonico_mercurio.jpeg</t>
+  </si>
+  <si>
+    <t>00053</t>
+  </si>
+  <si>
+    <t>00054</t>
+  </si>
+  <si>
+    <t>00055</t>
+  </si>
+  <si>
+    <t>Porcelanato Pietra Borgoña</t>
+  </si>
+  <si>
+    <t>pietra_borgoña.jpeg</t>
+  </si>
+  <si>
+    <t>Porcelanato Verona Gris</t>
+  </si>
+  <si>
+    <t>verona_gris.jpeg</t>
+  </si>
+  <si>
+    <t>Porcelanato Ónix Gris</t>
+  </si>
+  <si>
+    <t>onix_gris.jpeg</t>
+  </si>
+  <si>
+    <t>Porcelanato Calipso Gris</t>
+  </si>
+  <si>
+    <t>porc_calipso_gris.jpeg</t>
+  </si>
+  <si>
+    <t>00056</t>
+  </si>
+  <si>
+    <t>00057</t>
+  </si>
+  <si>
+    <t>Porcelanato Calacata Gold</t>
+  </si>
+  <si>
+    <t>calacata_gold.jpeg</t>
+  </si>
+  <si>
+    <t>00058</t>
+  </si>
+  <si>
+    <t>Porcelanato Cemento Gris</t>
+  </si>
+  <si>
+    <t>porc_cemento_gris.jpeg</t>
+  </si>
+  <si>
+    <t>00059</t>
+  </si>
+  <si>
+    <t>Porcelanato Folks Beige</t>
+  </si>
+  <si>
+    <t>folks_beige.jpeg</t>
+  </si>
+  <si>
+    <t>00060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcelanato Kairo Beige </t>
+  </si>
+  <si>
+    <t>kairo_beige.jpeg</t>
+  </si>
+  <si>
+    <t>00061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcelanato Gloria Gris </t>
+  </si>
+  <si>
+    <t>gloria_gris.jpeg</t>
+  </si>
+  <si>
+    <t>00062</t>
+  </si>
+  <si>
+    <t>Porcelanato Mármol Carrera Brillante</t>
+  </si>
+  <si>
+    <t>marmol_carrera_brillante.jpeg</t>
+  </si>
+  <si>
+    <t>00063</t>
+  </si>
+  <si>
+    <t>80x80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcelanato Cemento Gris </t>
+  </si>
+  <si>
+    <t>00064</t>
+  </si>
+  <si>
+    <t>80x160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcelanato Oxido Terra </t>
+  </si>
+  <si>
+    <t>oxido_terra.jpeg</t>
+  </si>
+  <si>
+    <t>00065</t>
+  </si>
+  <si>
+    <t>Porcelanato Concreto Gris</t>
+  </si>
+  <si>
+    <t>concreto_gris.jpeg</t>
+  </si>
+  <si>
+    <t>00066</t>
+  </si>
+  <si>
+    <t>Porcelanato Madera Vintage</t>
+  </si>
+  <si>
+    <t>22x160</t>
+  </si>
+  <si>
+    <t>madera_vintage.jpeg</t>
+  </si>
+  <si>
+    <t>00067</t>
+  </si>
+  <si>
+    <t>Porcelanato Dakota Marrón</t>
+  </si>
+  <si>
+    <t>dakota_marron.jpeg</t>
+  </si>
+  <si>
+    <t>00068</t>
+  </si>
+  <si>
+    <t>Porcelanato Chalten Ivory</t>
+  </si>
+  <si>
+    <t>chalten_ivory.jpeg</t>
+  </si>
+  <si>
+    <t>sanLorenzo</t>
+  </si>
+  <si>
+    <t>00069</t>
+  </si>
+  <si>
+    <t>45x45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Flower White </t>
+  </si>
+  <si>
+    <t>flower_white.jpeg</t>
+  </si>
+  <si>
+    <t>Cerámica Berta Mixtura</t>
+  </si>
+  <si>
+    <t>00070</t>
+  </si>
+  <si>
+    <t>berta_mixtura.jpeg</t>
+  </si>
+  <si>
+    <t>Porcelanato Turia Arena</t>
+  </si>
+  <si>
+    <t>58x58</t>
+  </si>
+  <si>
+    <t>00071</t>
+  </si>
+  <si>
+    <t>turia_arena.jpeg</t>
+  </si>
+  <si>
+    <t>Porcelanato Cantabria Botánico</t>
+  </si>
+  <si>
+    <t>00072</t>
+  </si>
+  <si>
+    <t>cantabria_botanico.jpeg</t>
+  </si>
+  <si>
+    <t>00073</t>
+  </si>
+  <si>
+    <t>Porcelanato Blau</t>
+  </si>
+  <si>
+    <t>porc_blau.jpeg</t>
+  </si>
+  <si>
+    <t>Porcelanato Clover Antideslizante</t>
+  </si>
+  <si>
+    <t>00074</t>
+  </si>
+  <si>
+    <t>clover_antideslizante.jpeg</t>
+  </si>
+  <si>
+    <t>00075</t>
+  </si>
+  <si>
+    <t>Porcelanato Terraferma Arena</t>
+  </si>
+  <si>
+    <t>terraferma_arena.jpeg</t>
+  </si>
+  <si>
+    <t>Tendenza Fossil Porcelanato</t>
+  </si>
+  <si>
+    <t>00076</t>
+  </si>
+  <si>
+    <t>fossil_porcelanato.jpeg</t>
+  </si>
+  <si>
+    <t>00077</t>
+  </si>
+  <si>
+    <t>Embramaco Savana Brasilero</t>
+  </si>
+  <si>
+    <t>savana_brasilero.jpeg</t>
+  </si>
+  <si>
+    <t>00078</t>
+  </si>
+  <si>
+    <t>45,3x45,3</t>
+  </si>
+  <si>
+    <t>Cerámica Scop Lutecia</t>
+  </si>
+  <si>
+    <t>scop_lutecia.jpeg</t>
+  </si>
+  <si>
+    <t>45,3x45x3</t>
+  </si>
+  <si>
+    <t>00079</t>
+  </si>
+  <si>
+    <t>Cerámica Scop Adoquín</t>
+  </si>
+  <si>
+    <t>scop_adoquin.jpeg</t>
+  </si>
+  <si>
+    <t>Porcelanato Taco Cantabria</t>
+  </si>
+  <si>
+    <t>00080</t>
+  </si>
+  <si>
+    <t>taco_cantabria.jpeg</t>
+  </si>
+  <si>
+    <t>importados</t>
+  </si>
+  <si>
+    <t>00081</t>
+  </si>
+  <si>
+    <t>62x62</t>
+  </si>
+  <si>
+    <t>Mendoza Pulido Rectificado</t>
+  </si>
+  <si>
+    <t>pulido_rectificado.jpeg</t>
+  </si>
+  <si>
+    <t>19,7x120</t>
+  </si>
+  <si>
+    <t>Criciuma Madera Rect</t>
+  </si>
+  <si>
+    <t>madera_rect.jpeg</t>
+  </si>
+  <si>
+    <t>00082</t>
+  </si>
+  <si>
+    <t>60x60</t>
+  </si>
+  <si>
+    <t>Concret Pulido Rectificado</t>
+  </si>
+  <si>
+    <t>00083</t>
+  </si>
+  <si>
+    <t>concret_pulido.jpeg</t>
+  </si>
+  <si>
+    <t>62,5x125</t>
+  </si>
+  <si>
+    <t>Portoro</t>
+  </si>
+  <si>
+    <t>00084</t>
+  </si>
+  <si>
+    <t>portoro.jpeg</t>
+  </si>
+  <si>
+    <t>62x125</t>
+  </si>
+  <si>
+    <t>Statutario Venato</t>
+  </si>
+  <si>
+    <t>venato.jpeg</t>
+  </si>
+  <si>
+    <t>00085</t>
+  </si>
+  <si>
+    <t>62,5x62,5</t>
+  </si>
+  <si>
+    <t>Zement Offwhite Acetinado Rect</t>
+  </si>
+  <si>
+    <t>offwhite_acetinado.jpeg</t>
+  </si>
+  <si>
+    <t>00086</t>
+  </si>
+  <si>
+    <t>00087</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>74x74</t>
+  </si>
+  <si>
+    <t>Palladium Cinza Rect. Exterior</t>
+  </si>
+  <si>
+    <t>cinza_exterior.jpeg</t>
+  </si>
+  <si>
+    <t>00088</t>
+  </si>
+  <si>
+    <t>detroit_exterior.jpeg</t>
+  </si>
+  <si>
+    <t>Detroit Rect. Exterior</t>
+  </si>
+  <si>
+    <t>00089</t>
+  </si>
+  <si>
+    <t>19x115</t>
+  </si>
+  <si>
+    <t>Bosco Grigio</t>
+  </si>
+  <si>
+    <t>bosco_grigio.jpeg</t>
+  </si>
+  <si>
+    <t>00090</t>
+  </si>
+  <si>
+    <t>Metropole Rect</t>
+  </si>
+  <si>
+    <t>metropole_rect.jpeg</t>
+  </si>
+  <si>
+    <t>00091</t>
+  </si>
+  <si>
+    <t>RCR</t>
+  </si>
+  <si>
+    <t>SAVANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eco Chic Rectificado </t>
+  </si>
+  <si>
+    <t>chic_rectificado.jpeg</t>
+  </si>
+  <si>
+    <t>corten_rectificado.jpeg</t>
+  </si>
+  <si>
+    <t>Legno Corten Rectificado</t>
+  </si>
+  <si>
+    <t>00092</t>
+  </si>
+  <si>
+    <t>00093</t>
+  </si>
+  <si>
+    <t>Ferruccio Rectificado</t>
+  </si>
+  <si>
+    <t>ferruccio_rectificado.jpeg</t>
+  </si>
+  <si>
+    <t>Terrazo Grafite Rectificado</t>
+  </si>
+  <si>
+    <t>00094</t>
+  </si>
+  <si>
+    <t>terrazo_grafite.jpeg</t>
+  </si>
+  <si>
+    <t>STRUFALDI</t>
+  </si>
+  <si>
+    <t>00095</t>
+  </si>
+  <si>
+    <t>00096</t>
+  </si>
+  <si>
+    <t>Vis</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>vis.jpeg</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>malawi.jpeg</t>
+  </si>
+  <si>
+    <t>00097</t>
+  </si>
+  <si>
+    <t>00098</t>
+  </si>
+  <si>
+    <t>Palau Rústico</t>
+  </si>
+  <si>
+    <t>palau_rustico.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa Rústico </t>
+  </si>
+  <si>
+    <t>samoa_rustico.jpeg</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>portland.jpeg</t>
+  </si>
+  <si>
+    <t>00099</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>black.jpeg</t>
+  </si>
+  <si>
+    <t>00101</t>
+  </si>
+  <si>
+    <t>Black Mate</t>
+  </si>
+  <si>
+    <t>black_mate.jpeg</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>white.jpeg</t>
+  </si>
+  <si>
+    <t>00102</t>
+  </si>
+  <si>
+    <t>10x20</t>
+  </si>
+  <si>
+    <t>00103</t>
+  </si>
+  <si>
+    <t>white_g.jpeg</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>snow.jpeg</t>
+  </si>
+  <si>
+    <t>00104</t>
+  </si>
+  <si>
+    <t>00105</t>
+  </si>
+  <si>
+    <t>black_g.jpeg</t>
+  </si>
+  <si>
+    <t>20x20</t>
+  </si>
+  <si>
+    <t>Piso Black Mate</t>
+  </si>
+  <si>
+    <t>00106</t>
+  </si>
+  <si>
+    <t>piso_black_mate.jpeg</t>
+  </si>
+  <si>
+    <t>white_strufaldi.jpeg</t>
+  </si>
+  <si>
+    <t>00107</t>
+  </si>
+  <si>
+    <t>Gelo</t>
+  </si>
+  <si>
+    <t>gelo.jpeg</t>
+  </si>
+  <si>
+    <t>00108</t>
+  </si>
+  <si>
+    <t>6x24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firenze Bright </t>
+  </si>
+  <si>
+    <t>00109</t>
+  </si>
+  <si>
+    <t>firenze_bright.jpeg</t>
+  </si>
+  <si>
+    <t>00110</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>firenze.jpeg</t>
+  </si>
+  <si>
+    <t>00111</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>jade.jpeg</t>
+  </si>
+  <si>
+    <t>00112</t>
+  </si>
+  <si>
+    <t>Vivace San Remo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceniza </t>
+  </si>
+  <si>
+    <t>00113</t>
+  </si>
+  <si>
+    <t>ceniza.jpeg</t>
+  </si>
+  <si>
+    <t>Vivace Miseno</t>
+  </si>
+  <si>
+    <t>00114</t>
+  </si>
+  <si>
+    <t>vivace_miseno.jpeg</t>
+  </si>
+  <si>
+    <t>vivace_san_remo.jpeg</t>
+  </si>
+  <si>
+    <t>Palau Bright</t>
+  </si>
+  <si>
+    <t>00115</t>
+  </si>
+  <si>
+    <t>palau_bright.jpeg</t>
+  </si>
+  <si>
+    <t>Samoa Bright</t>
+  </si>
+  <si>
+    <t>00116</t>
+  </si>
+  <si>
+    <t>samoa_bright.jpeg</t>
+  </si>
+  <si>
+    <t>Rossa Bright</t>
+  </si>
+  <si>
+    <t>00117</t>
+  </si>
+  <si>
+    <t>rossa_bright.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arancione Bright </t>
+  </si>
+  <si>
+    <t>00118</t>
+  </si>
+  <si>
+    <t>arancione_bright.jpeg</t>
+  </si>
+  <si>
+    <t>Sottile Caletta</t>
+  </si>
+  <si>
+    <t>00119</t>
+  </si>
+  <si>
+    <t>sottile_caletta.jpeg</t>
+  </si>
+  <si>
+    <t>00120</t>
+  </si>
+  <si>
+    <t>32x47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibiza Azul </t>
+  </si>
+  <si>
+    <t>ibiza_azul.jpeg</t>
+  </si>
+  <si>
+    <t>CAÑUELAS</t>
+  </si>
+  <si>
+    <t>00121</t>
+  </si>
+  <si>
+    <t>00122</t>
+  </si>
+  <si>
+    <t>00123</t>
+  </si>
+  <si>
+    <t>00124</t>
+  </si>
+  <si>
+    <t>00125</t>
+  </si>
+  <si>
+    <t>50x50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botticino Gris </t>
+  </si>
+  <si>
+    <t>botticino_gris.jpeg</t>
+  </si>
+  <si>
+    <t>Riminni Tiza</t>
+  </si>
+  <si>
+    <t>riminni_tiza.jpeg</t>
+  </si>
+  <si>
+    <t>Napoles Gris</t>
+  </si>
+  <si>
+    <t>napoles_gris.jpeg</t>
+  </si>
+  <si>
+    <t>61,5x61,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varese Gris </t>
+  </si>
+  <si>
+    <t>varese_gris.jpeg</t>
+  </si>
+  <si>
+    <t>Varese Tiza</t>
+  </si>
+  <si>
+    <t>varese_tiza.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levante Beige </t>
+  </si>
+  <si>
+    <t>levante_beige.jpeg</t>
+  </si>
+  <si>
+    <t>00126</t>
+  </si>
+  <si>
+    <t>62x20</t>
+  </si>
+  <si>
+    <t>Monza Rectificado</t>
+  </si>
+  <si>
+    <t>monza.jpeg</t>
+  </si>
+  <si>
+    <t>Cartagena Grafito Rectificado</t>
+  </si>
+  <si>
+    <t>cartagena_grafito.jpeg</t>
+  </si>
+  <si>
+    <t>00127</t>
+  </si>
+  <si>
+    <t>00128</t>
+  </si>
+  <si>
+    <t>Macerata Rectificado</t>
+  </si>
+  <si>
+    <t>00129</t>
+  </si>
+  <si>
+    <t>macerata.jpeg</t>
+  </si>
+  <si>
+    <t>Vicenza Rectificado</t>
+  </si>
+  <si>
+    <t>vicenza.jpeg</t>
+  </si>
+  <si>
+    <t>00130</t>
+  </si>
+  <si>
+    <t>Udine Rectificado</t>
+  </si>
+  <si>
+    <t>00131</t>
+  </si>
+  <si>
+    <t>udine.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandria Rectificado </t>
+  </si>
+  <si>
+    <t>00132</t>
+  </si>
+  <si>
+    <t>alessandria.jpeg</t>
+  </si>
+  <si>
+    <t>00133</t>
+  </si>
+  <si>
+    <t>00134</t>
+  </si>
+  <si>
+    <t>00135</t>
+  </si>
+  <si>
+    <t>00136</t>
+  </si>
+  <si>
+    <t>POINTER</t>
+  </si>
+  <si>
+    <t>Polaris Mate</t>
+  </si>
+  <si>
+    <t>45x90</t>
+  </si>
+  <si>
+    <t>polaris_mate.jpeg</t>
+  </si>
+  <si>
+    <t>60x120</t>
+  </si>
+  <si>
+    <t>E Motion Wood</t>
+  </si>
+  <si>
+    <t>motion_wood.jpeg</t>
+  </si>
+  <si>
+    <t>EMBRAMACO</t>
+  </si>
+  <si>
+    <t>63X122</t>
+  </si>
+  <si>
+    <t>Mont Blanc Lux</t>
+  </si>
+  <si>
+    <t>mont_blanc.jpeg</t>
+  </si>
+  <si>
+    <t>85x85</t>
+  </si>
+  <si>
+    <t>Marmo Patagonia Lux</t>
+  </si>
+  <si>
+    <t>marmo_patagonia.jpeg</t>
+  </si>
+  <si>
+    <t>63x122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travertino Navona </t>
+  </si>
+  <si>
+    <t>travertino_navona.jpeg</t>
+  </si>
+  <si>
+    <t>00137</t>
+  </si>
+  <si>
+    <t>00138</t>
+  </si>
+  <si>
+    <t>00139</t>
+  </si>
+  <si>
+    <t>00140</t>
+  </si>
+  <si>
+    <t>RAFINATTO</t>
+  </si>
+  <si>
+    <t>68x68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concret Gray </t>
+  </si>
+  <si>
+    <t>concret_gray.jpeg</t>
+  </si>
+  <si>
+    <t>28x118</t>
+  </si>
+  <si>
+    <t>Indiana Plus</t>
+  </si>
+  <si>
+    <t>indiana_plus.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Mate </t>
   </si>
 </sst>
 </file>
@@ -383,7 +1436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +1446,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,12 +1486,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,6 +1818,7 @@
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.21875" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1363,6 +2450,1954 @@
         <v>104</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F82" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F84" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F85" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F86" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F87" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F92" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F93" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F94" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F95" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F96" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F98" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F99" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F100" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F101" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F102" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F103" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F104" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F105" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F106" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F107" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F108" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F109" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F110" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F111" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F112" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F113" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F114" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F115" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F116" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F117" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F118" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F119" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F120" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F121" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F122" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F123" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F124" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F125" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F126" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F127" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F128" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F129" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F130" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F131" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F132" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F133" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F136" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F137" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F138" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F139" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F140" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F141" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/base_de_datos.xlsx
+++ b/base_de_datos.xlsx
@@ -502,9 +502,6 @@
     <t>Cerámica Quina Rojiza</t>
   </si>
   <si>
-    <t>sanPietro</t>
-  </si>
-  <si>
     <t>53x53</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
     <t>chalten_ivory.jpeg</t>
   </si>
   <si>
-    <t>sanLorenzo</t>
-  </si>
-  <si>
     <t>00069</t>
   </si>
   <si>
@@ -1421,14 +1415,28 @@
   </si>
   <si>
     <t xml:space="preserve">Black Mate </t>
+  </si>
+  <si>
+    <t>sanpietro</t>
+  </si>
+  <si>
+    <t>sanlorenzo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1486,7 +1494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1501,6 +1509,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1805,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2690,1712 +2699,1713 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="C52" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="E52" s="8" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="E53" s="8" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="E54" s="8" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="E55" s="8" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="E56" s="8" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="E57" s="8" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="C58" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="E58" s="8" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="C59" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="E59" s="8" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="C60" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="E60" s="8" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="E61" s="8" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="E62" s="8" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="C63" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="E63" s="8" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="D64" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+      <c r="B65" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="E65" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="C66" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="E66" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="D67" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="E67" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="E68" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="C69" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="E69" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
+      <c r="B70" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="C70" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
+      <c r="D71" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+      <c r="D72" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
+      <c r="C73" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="12" t="s">
+      <c r="B74" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E73" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
+      <c r="C74" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="E74" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
+      <c r="C75" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D75" s="12" t="s">
+      <c r="B76" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E75" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
+      <c r="C76" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="E76" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
+      <c r="C77" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D77" s="12" t="s">
+      <c r="B78" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
+      <c r="C78" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="E78" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D78" s="12" t="s">
+      <c r="B79" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B79" s="12" t="s">
+      <c r="D79" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
+      <c r="D80" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>257</v>
-      </c>
       <c r="E80" s="12" t="s">
-        <v>220</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B81" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>260</v>
-      </c>
       <c r="E81" s="12" t="s">
-        <v>220</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>264</v>
-      </c>
       <c r="C82" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D82" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="E82" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F82" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C83" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="E83" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F83" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B84" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>273</v>
-      </c>
       <c r="E84" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F84" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B85" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>277</v>
-      </c>
       <c r="E85" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F85" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C86" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>280</v>
-      </c>
       <c r="E86" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F86" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F87" t="s">
         <v>285</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F87" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C88" s="10" t="s">
+      <c r="D88" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D88" s="10" t="s">
-        <v>290</v>
-      </c>
       <c r="E88" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>302</v>
+        <v>259</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>293</v>
-      </c>
       <c r="C89" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>302</v>
+        <v>259</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>296</v>
-      </c>
       <c r="C90" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D90" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="E90" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>302</v>
+        <v>259</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D91" s="10" t="s">
+      <c r="E91" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F91" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F92" t="s">
         <v>301</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F92" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F93" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>311</v>
-      </c>
       <c r="E94" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F94" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B95" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>314</v>
-      </c>
       <c r="E95" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F95" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="C96" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>320</v>
-      </c>
       <c r="E96" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F96" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>319</v>
-      </c>
       <c r="D97" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F97" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>325</v>
-      </c>
       <c r="C98" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F98" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F100" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>334</v>
-      </c>
       <c r="E101" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F101" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>337</v>
-      </c>
       <c r="E102" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F102" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C104" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="D104" s="10" t="s">
-        <v>343</v>
-      </c>
       <c r="E104" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F104" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F105" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F106" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B107" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>352</v>
-      </c>
       <c r="E107" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F107" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F108" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F109" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B110" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>361</v>
-      </c>
       <c r="E110" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F110" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>364</v>
-      </c>
       <c r="E111" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F111" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>367</v>
-      </c>
       <c r="E112" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F112" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F113" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B114" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>372</v>
-      </c>
       <c r="E114" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F114" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B115" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>375</v>
-      </c>
       <c r="E115" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F115" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B116" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D116" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>379</v>
-      </c>
       <c r="E116" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F116" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>382</v>
-      </c>
       <c r="E117" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F117" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B118" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>385</v>
-      </c>
       <c r="E118" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F118" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B119" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>388</v>
-      </c>
       <c r="E119" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F119" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B120" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>391</v>
-      </c>
       <c r="E120" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F120" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="C121" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F121" t="s">
         <v>394</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F121" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C122" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D122" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="D122" s="10" t="s">
-        <v>404</v>
-      </c>
       <c r="E122" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F122" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F123" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F124" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C125" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="D125" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="D125" s="10" t="s">
-        <v>411</v>
-      </c>
       <c r="E125" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F125" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F126" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F127" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C128" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="D128" s="10" t="s">
-        <v>419</v>
-      </c>
       <c r="E128" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F128" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F129" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B130" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D130" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>426</v>
-      </c>
       <c r="E130" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F130" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F131" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B132" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D132" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C132" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>432</v>
-      </c>
       <c r="E132" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B133" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D133" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>435</v>
-      </c>
       <c r="E133" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B134" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D134" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C134" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>443</v>
-      </c>
       <c r="E134" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C135" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D135" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="D135" s="10" t="s">
-        <v>446</v>
-      </c>
       <c r="E135" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C136" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="D136" s="10" t="s">
-        <v>450</v>
-      </c>
       <c r="E136" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C137" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="D137" s="10" t="s">
-        <v>453</v>
-      </c>
       <c r="E137" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C138" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D138" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="D138" s="10" t="s">
-        <v>456</v>
-      </c>
       <c r="E138" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C139" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="D139" s="10" t="s">
-        <v>464</v>
-      </c>
       <c r="E139" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F140" t="s">
         <v>459</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F140" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F141" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/base_de_datos.xlsx
+++ b/base_de_datos.xlsx
@@ -1816,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
       <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>

--- a/base_de_datos.xlsx
+++ b/base_de_datos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="469">
   <si>
     <t>Código</t>
   </si>
@@ -1198,9 +1198,6 @@
     <t>ibiza_azul.jpeg</t>
   </si>
   <si>
-    <t>CAÑUELAS</t>
-  </si>
-  <si>
     <t>00121</t>
   </si>
   <si>
@@ -1421,6 +1418,9 @@
   </si>
   <si>
     <t>sanlorenzo</t>
+  </si>
+  <si>
+    <t>cañuelas</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1481,6 +1481,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1494,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1510,6 +1516,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1816,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2711,7 +2719,7 @@
         <v>163</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2728,7 +2736,7 @@
         <v>168</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2745,7 +2753,7 @@
         <v>173</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2762,7 +2770,7 @@
         <v>175</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2779,7 +2787,7 @@
         <v>177</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2796,7 +2804,7 @@
         <v>179</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2813,7 +2821,7 @@
         <v>183</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2830,7 +2838,7 @@
         <v>186</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2847,7 +2855,7 @@
         <v>189</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2864,7 +2872,7 @@
         <v>192</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2881,7 +2889,7 @@
         <v>195</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2898,7 +2906,7 @@
         <v>198</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2915,7 +2923,7 @@
         <v>186</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2932,7 +2940,7 @@
         <v>205</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2949,7 +2957,7 @@
         <v>208</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2966,7 +2974,7 @@
         <v>212</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2983,7 +2991,7 @@
         <v>215</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -3000,7 +3008,7 @@
         <v>218</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -3017,7 +3025,7 @@
         <v>222</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3034,7 +3042,7 @@
         <v>225</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3051,7 +3059,7 @@
         <v>229</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -3068,7 +3076,7 @@
         <v>232</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3085,7 +3093,7 @@
         <v>235</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -3102,7 +3110,7 @@
         <v>238</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3119,7 +3127,7 @@
         <v>241</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3136,7 +3144,7 @@
         <v>244</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G77" s="14"/>
     </row>
@@ -3154,7 +3162,7 @@
         <v>247</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3171,7 +3179,7 @@
         <v>251</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3188,7 +3196,7 @@
         <v>255</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3205,7 +3213,7 @@
         <v>258</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3989,411 +3997,372 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="E121" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="15" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="9" t="s">
+      <c r="B122" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="D122" s="10" t="s">
+      <c r="B123" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="E122" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F122" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="9" t="s">
+      <c r="C123" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="D123" s="10" t="s">
+      <c r="B124" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="E123" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F123" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="9" t="s">
+      <c r="C124" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="D124" s="10" t="s">
+      <c r="B125" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C125" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="E124" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F124" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="9" t="s">
+      <c r="D125" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="D125" s="10" t="s">
+      <c r="B126" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="E125" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F125" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="B126" s="10" t="s">
+      <c r="C126" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D126" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="D126" s="10" t="s">
+      <c r="E126" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B127" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="E126" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F126" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="9" t="s">
+      <c r="C127" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C128" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F127" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="9" t="s">
+      <c r="D128" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="D128" s="10" t="s">
+      <c r="B129" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="E128" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F128" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="9" t="s">
+      <c r="C129" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="B130" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F129" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="9" t="s">
+      <c r="C130" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D130" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="D130" s="10" t="s">
+      <c r="E130" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B131" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="E130" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="9" t="s">
+      <c r="C131" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B132" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="9" t="s">
+      <c r="C132" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D132" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="D132" s="10" t="s">
+      <c r="E132" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B133" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="E132" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F132" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="9" t="s">
+      <c r="C133" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D133" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>394</v>
+      <c r="E133" s="16" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B134" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="D134" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="D134" s="10" t="s">
-        <v>441</v>
-      </c>
       <c r="E134" s="10" t="s">
         <v>259</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B135" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D135" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>444</v>
-      </c>
       <c r="E135" s="10" t="s">
         <v>259</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B136" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C136" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>448</v>
-      </c>
       <c r="E136" s="10" t="s">
         <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B137" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>451</v>
-      </c>
       <c r="E137" s="10" t="s">
         <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B138" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D138" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="C138" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>454</v>
-      </c>
       <c r="E138" s="10" t="s">
         <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B139" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>462</v>
-      </c>
       <c r="E139" s="10" t="s">
         <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B140" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D140" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="E140" s="10" t="s">
         <v>259</v>
       </c>
       <c r="F140" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>339</v>
